--- a/berekeningen/horizontale kracht.xlsx
+++ b/berekeningen/horizontale kracht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svenk\Documents\GitHub\ProjectGearDeburr\berekeningen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08EFBE62-C0B9-440A-BF50-7AF1536E0183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E1DA3BB-D2CE-437C-B75A-FED76C3D5724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="23385" xr2:uid="{8F5469FE-0290-4756-A4A4-563265A5DE86}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>berekeningen horizontale kracht schuif</t>
   </si>
@@ -220,10 +242,19 @@
     <t>veerkracht</t>
   </si>
   <si>
-    <t>horizontale kracht</t>
-  </si>
-  <si>
     <t>incl veiligheidsfactor</t>
+  </si>
+  <si>
+    <t>veerbaar draadlengte</t>
+  </si>
+  <si>
+    <t>horizontale kracht enkel draad</t>
+  </si>
+  <si>
+    <t>aantal draden tegelijkertijd in aanraking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horizontale kracht </t>
   </si>
 </sst>
 </file>
@@ -284,9 +315,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -302,6 +337,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310E7686-6CA2-4FEB-9C69-4F04825915B8}">
-  <dimension ref="B2:H19"/>
+  <dimension ref="B2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,8 +879,8 @@
         <v>31</v>
       </c>
       <c r="G10">
-        <f>3*C19*G9/C13^3</f>
-        <v>2003.9434139085884</v>
+        <f>3*C19*G9/C21^3</f>
+        <v>144.96118445519303</v>
       </c>
       <c r="H10" t="s">
         <v>37</v>
@@ -802,7 +901,7 @@
       </c>
       <c r="G11" s="1">
         <f>G10*C13</f>
-        <v>10.019717069542942</v>
+        <v>0.72480592227596519</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>29</v>
@@ -819,11 +918,11 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <f>(G11+G8)*C11</f>
-        <v>6.0184020220681544</v>
+        <v>0.44145533370796863</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
@@ -838,11 +937,11 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G13">
-        <f>G12*C14</f>
-        <v>9.0276030331022312</v>
+        <f>G12*C22</f>
+        <v>13.24366001123906</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -857,6 +956,16 @@
       </c>
       <c r="D14" t="s">
         <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14">
+        <f>G13*C14</f>
+        <v>19.86549001685859</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -879,7 +988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -890,7 +999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -901,7 +1010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>C18*10^9</f>
         <v>210000000000</v>
@@ -910,7 +1019,166 @@
         <v>34</v>
       </c>
     </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3">
+        <f>C20/1000</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B26:E42"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>